--- a/数据库关系.xlsx
+++ b/数据库关系.xlsx
@@ -659,7 +659,7 @@
   <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
